--- a/data/daghestan_census.xlsx
+++ b/data/daghestan_census.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="census_1885" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="3312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="3311">
   <si>
     <t xml:space="preserve">id_s1</t>
   </si>
@@ -9958,9 +9958,6 @@
   </si>
   <si>
     <t xml:space="preserve">Echeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng_vil_name</t>
   </si>
 </sst>
 </file>
@@ -9970,7 +9967,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -10054,6 +10051,11 @@
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -10206,8 +10208,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10307,11 +10313,11 @@
   </sheetPr>
   <dimension ref="A1:C846"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.74"/>
@@ -19646,7 +19652,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="112.41"/>
@@ -28981,7 +28987,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.81"/>
@@ -40855,7 +40861,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -50187,10 +50193,10 @@
   <dimension ref="A1:E846"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.27"/>
@@ -64598,11 +64604,11 @@
   </sheetPr>
   <dimension ref="A1:B846"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.32"/>
@@ -64612,8 +64618,8 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>3311</v>
+      <c r="B1" s="1" t="s">
+        <v>2480</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
